--- a/Homework 2/Micheal Bay Movie Rating.xlsx
+++ b/Homework 2/Micheal Bay Movie Rating.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qinzen\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{B69B1C11-5624-405C-A33B-F0D19CDB1A74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{586B3139-637F-4AD2-AB90-D7B8961A4561}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{B69B1C11-5624-405C-A33B-F0D19CDB1A74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{09D48AAB-7D29-4FCF-837D-60BADB92AF9E}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>Gintas</t>
+  </si>
+  <si>
+    <t>Saptarsi Guha</t>
   </si>
   <si>
     <t>kQ73UQC2m0Sp8w6tO6U06qt7qBwjFdxHt2vDgA3NI1lUOUFHNkFZM0s4QTZOM09IUEVLNU41UkwxUC4u</t>
@@ -236,8 +239,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:R6" totalsRowShown="0">
-  <autoFilter ref="A1:R6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:R7" totalsRowShown="0">
+  <autoFilter ref="A1:R7" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Start time" dataDxfId="16"/>
@@ -559,7 +562,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
@@ -873,6 +876,58 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>44231.785277777781</v>
+      </c>
+      <c r="C7" s="1">
+        <v>44231.785601851851</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="2">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2">
+        <v>5</v>
+      </c>
+      <c r="J7" s="2">
+        <v>4</v>
+      </c>
+      <c r="K7" s="2">
+        <v>5</v>
+      </c>
+      <c r="L7" s="2">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2">
+        <v>4</v>
+      </c>
+      <c r="P7" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>4</v>
+      </c>
+      <c r="R7" s="2">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -895,17 +950,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
